--- a/child_of_one.xlsx
+++ b/child_of_one.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All group" sheetId="2" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="18-24 years" sheetId="5" r:id="rId4"/>
     <sheet name="20-24 years" sheetId="6" r:id="rId5"/>
     <sheet name="keys" sheetId="1" r:id="rId6"/>
+    <sheet name="Features" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="54">
   <si>
     <t>variable_name</t>
   </si>
@@ -1169,7 +1170,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1466,7 +1466,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1568,7 +1567,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1817,7 +1815,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1919,7 +1916,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2226,7 +2222,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5476,7 +5471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5614,7 +5609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5718,7 +5713,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5816,7 +5811,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5890,7 +5885,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -6276,7 +6271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -6422,7 +6417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -6838,7 +6833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7462,4 +7459,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="109.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/child_of_one.xlsx
+++ b/child_of_one.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bootcamp\Desktop\Child_of_change\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="All group" sheetId="2" r:id="rId1"/>
@@ -195,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,18 +271,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[child_of_one.xlsx]All group!PivotTable1</c:name>
     <c:fmtId val="0"/>
@@ -295,7 +280,6 @@
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -324,7 +308,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -344,13 +327,10 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -361,7 +341,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -372,7 +351,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -387,7 +365,6 @@
       <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -412,7 +389,6 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'All group'!$A$4:$A$16</c:f>
@@ -502,36 +478,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF5B-4539-8F5E-F5F5E61E903C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="1695921712"/>
-        <c:axId val="1695922128"/>
+        <c:axId val="103974784"/>
+        <c:axId val="103976320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1695921712"/>
+        <c:axId val="103974784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -560,19 +526,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695922128"/>
+        <c:crossAx val="103976320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1695922128"/>
+        <c:axId val="103976320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -590,7 +554,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -619,7 +582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695921712"/>
+        <c:crossAx val="103974784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,7 +597,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -665,7 +627,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -694,10 +655,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -717,18 +678,8 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[child_of_one.xlsx]15-19 years!PivotTable2</c:name>
     <c:fmtId val="0"/>
@@ -736,7 +687,6 @@
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -765,7 +715,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -785,13 +734,10 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -802,7 +748,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -813,7 +758,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -828,7 +772,6 @@
       <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -853,7 +796,6 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'15-19 years'!$A$4:$A$15</c:f>
@@ -937,36 +879,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-154F-4199-AAF8-9ECDF68355DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="1695923792"/>
-        <c:axId val="1695924208"/>
+        <c:axId val="104207488"/>
+        <c:axId val="104209024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1695923792"/>
+        <c:axId val="104207488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -995,19 +927,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695924208"/>
+        <c:crossAx val="104209024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1695924208"/>
+        <c:axId val="104209024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1025,7 +955,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1054,7 +983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695923792"/>
+        <c:crossAx val="104207488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,7 +998,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1100,7 +1028,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1129,10 +1056,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1152,25 +1079,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[child_of_one.xlsx]15-24 years!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1199,7 +1115,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1228,7 +1143,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1258,7 +1172,6 @@
               </a:glow>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'15-24 years'!$A$4:$A$13</c:f>
@@ -1330,35 +1243,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D4FE-4CB1-BA64-3271A41A6419}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1696174464"/>
-        <c:axId val="1696177376"/>
+        <c:axId val="104300544"/>
+        <c:axId val="104302080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1696174464"/>
+        <c:axId val="104300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1393,19 +1297,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696177376"/>
+        <c:crossAx val="104302080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696177376"/>
+        <c:axId val="104302080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1423,7 +1325,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1452,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696174464"/>
+        <c:crossAx val="104300544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,7 +1367,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1497,7 +1397,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1526,10 +1425,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1549,25 +1448,14 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[child_of_one.xlsx]18-24 years!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1596,7 +1484,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1625,7 +1512,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1655,7 +1541,6 @@
               </a:glow>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'18-24 years'!$A$4:$A$5</c:f>
@@ -1679,35 +1564,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6322-41F2-81FD-8BAF6406639C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1757369216"/>
-        <c:axId val="1757369632"/>
+        <c:axId val="104467072"/>
+        <c:axId val="104468864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1757369216"/>
+        <c:axId val="104467072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1742,19 +1618,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1757369632"/>
+        <c:crossAx val="104468864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1757369632"/>
+        <c:axId val="104468864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1772,7 +1646,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1801,7 +1674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1757369216"/>
+        <c:crossAx val="104467072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1815,7 +1688,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1846,7 +1718,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1875,10 +1746,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1898,25 +1769,15 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[child_of_one.xlsx]20-24 years!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1945,7 +1806,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1975,16 +1835,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14191426071741031"/>
-          <c:y val="0.35022710702828813"/>
-          <c:w val="0.76112270341207344"/>
-          <c:h val="0.29460228929717119"/>
+          <c:x val="0.14191426071741037"/>
+          <c:y val="0.35022710702828819"/>
+          <c:w val="0.76112270341207355"/>
+          <c:h val="0.2946022892971713"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2014,7 +1873,6 @@
               </a:glow>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'20-24 years'!$A$4:$A$13</c:f>
@@ -2086,35 +1944,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A0DD-41F2-9452-04B4EF7BBC03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1777518496"/>
-        <c:axId val="1777513920"/>
+        <c:axId val="104678912"/>
+        <c:axId val="104680448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1777518496"/>
+        <c:axId val="104678912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2149,19 +1998,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1777513920"/>
+        <c:crossAx val="104680448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1777513920"/>
+        <c:axId val="104680448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2179,7 +2026,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2208,7 +2054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1777518496"/>
+        <c:crossAx val="104678912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,7 +2068,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2253,7 +2099,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2282,10 +2127,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -5471,7 +5316,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5983,7 +5828,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6025,7 +5870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6057,10 +5902,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6092,7 +5936,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6268,14 +6111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="105" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -6295,7 +6138,7 @@
     <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -6303,7 +6146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -6311,7 +6154,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -6319,7 +6162,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6327,7 +6170,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -6335,7 +6178,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -6343,7 +6186,7 @@
         <v>11671</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -6351,7 +6194,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -6359,7 +6202,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -6367,7 +6210,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6375,7 +6218,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -6383,7 +6226,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -6391,7 +6234,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -6399,7 +6242,7 @@
         <v>7639</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -6414,20 +6257,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6435,7 +6278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -6443,7 +6286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -6451,7 +6294,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -6459,7 +6302,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6467,7 +6310,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -6475,7 +6318,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -6483,7 +6326,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -6491,7 +6334,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -6499,7 +6342,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -6507,7 +6350,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -6515,7 +6358,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6366,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -6531,7 +6374,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -6546,20 +6389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6567,7 +6410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -6583,7 +6426,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -6591,7 +6434,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6599,7 +6442,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -6607,7 +6450,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -6615,7 +6458,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -6623,7 +6466,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -6631,7 +6474,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6639,7 +6482,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -6647,7 +6490,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -6662,20 +6505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6683,7 +6526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -6691,7 +6534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -6699,7 +6542,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -6714,20 +6557,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6735,7 +6578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -6743,7 +6586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -6751,7 +6594,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -6759,7 +6602,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6767,7 +6610,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -6775,7 +6618,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +6626,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -6791,7 +6634,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -6799,7 +6642,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6807,7 +6650,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -6815,7 +6658,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -6830,16 +6673,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6856,7 +6699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6876,7 +6719,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6896,7 +6739,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6916,7 +6759,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6936,7 +6779,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6956,7 +6799,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6976,7 +6819,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6996,7 +6839,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7016,7 +6859,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7036,7 +6879,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7056,7 +6899,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7076,7 +6919,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7096,7 +6939,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7116,7 +6959,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7136,7 +6979,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7156,7 +6999,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7176,7 +7019,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7196,7 +7039,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7216,7 +7059,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7236,7 +7079,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7256,7 +7099,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7276,7 +7119,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7296,7 +7139,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7316,7 +7159,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7336,7 +7179,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7356,7 +7199,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7376,7 +7219,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7396,7 +7239,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7416,7 +7259,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7436,7 +7279,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7462,164 +7305,164 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>16</v>
       </c>
